--- a/TMDL_Stream_2010-2019_V3.xlsx
+++ b/TMDL_Stream_2010-2019_V3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PW_UtilityEng\STORM\Programs\Monitoring\R Stats\Projects\Watershed-Prioritization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PW_UtilityEng\STORM\Programs\Monitoring\R Stats\Projects\Shiny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12990" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22275" windowHeight="10095" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SARU" sheetId="1" r:id="rId1"/>
@@ -7026,9 +7026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z75" sqref="Z75:Z76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9314,7 +9314,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
-        <v>74369</v>
+        <v>41498</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>61</v>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="M42">
         <f t="shared" si="0"/>
-        <v>2103</v>
+        <v>2013</v>
       </c>
       <c r="N42" t="s">
         <v>10</v>
@@ -15269,8 +15269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z70"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17284,7 +17284,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
-        <v>73903</v>
+        <v>41397</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>68</v>
@@ -17321,7 +17321,7 @@
       </c>
       <c r="M39">
         <f t="shared" si="0"/>
-        <v>2102</v>
+        <v>2013</v>
       </c>
       <c r="N39" t="s">
         <v>9</v>
@@ -54403,7 +54403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
